--- a/biology/Zoologie/Encyocrypta_aureco/Encyocrypta_aureco.xlsx
+++ b/biology/Zoologie/Encyocrypta_aureco/Encyocrypta_aureco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta aureco est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta aureco est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre vers le col d'Amieu[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre vers le col d'Amieu.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 21 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 21 mm
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence à l'Australian Research Council[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence à l'Australian Research Council.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
